--- a/outcome/appendix/data/Table S3.xlsx
+++ b/outcome/appendix/data/Table S3.xlsx
@@ -615,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>10029.41</v>
+        <v>10830.12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9801</v>
+        <v>0.9815</v>
       </c>
     </row>
     <row r="11">
@@ -751,10 +751,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>120057.56</v>
+        <v>116227.88</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2057</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="19">
@@ -836,10 +836,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>124899.87</v>
+        <v>109436.26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3053</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="24">
@@ -1023,10 +1023,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>1861.01</v>
+        <v>1194.06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9471</v>
+        <v>0.9199</v>
       </c>
     </row>
     <row r="35">
@@ -1159,10 +1159,10 @@
         <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>112676.86</v>
+        <v>112448.74</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3282</v>
+        <v>0.3277</v>
       </c>
     </row>
     <row r="43">
@@ -1244,10 +1244,10 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>89610.3</v>
+        <v>88256.01</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3251</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="48">
@@ -1431,10 +1431,10 @@
         <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>50895.76</v>
+        <v>41714.48</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787</v>
+        <v>0.9741</v>
       </c>
     </row>
     <row r="59">
@@ -1567,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>288379.27</v>
+        <v>281033.36</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0828</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="67">
@@ -1652,10 +1652,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>446705.07</v>
+        <v>402819.1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1721</v>
+        <v>0.1579</v>
       </c>
     </row>
     <row r="72">
